--- a/src/test/resources/static/file/sample-fail.xlsx
+++ b/src/test/resources/static/file/sample-fail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\test\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646D181D-53A5-4B69-A3A1-C51048339E1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25843D4-68BF-4D73-AFC4-52081715352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="2685" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
+    <workbookView xWindow="10320" yWindow="2025" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
   <si>
     <t>010-1111-2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
   </si>
   <si>
     <t>필수인 이름이 공백으로 입력됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수인 전화번호가 공백으로 입력됨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5454262-A095-4D4C-8F12-F1A27FC839A6}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -614,30 +610,22 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/static/file/sample-fail.xlsx
+++ b/src/test/resources/static/file/sample-fail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\test\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25843D4-68BF-4D73-AFC4-52081715352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2533EDB-25D8-49B8-84A3-2CD9BD3D20A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2025" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
   <si>
     <t>010-1111-2222</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,14 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-111-222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>잘못된 전화번호 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>주소최대길이는40임123456789012345678901234567890-초과데이터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -118,6 +110,38 @@
   </si>
   <si>
     <t>필수인 이름이 공백으로 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>56세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>57세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>58세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>59세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자</t>
+  </si>
+  <si>
+    <t>abs21243as</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>잘못된 전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200자 초과한 데이터 창업주 이병철의 손자이자 이병철의 손자이자 홍진기의 외손자60세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자60세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자60세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자60세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자60세, 기업인, 창업주 이병철의 손자이자 홍진기의 외손자 창업주 이병철의 손자이자 홍진기의 외손자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -518,10 +542,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5454262-A095-4D4C-8F12-F1A27FC839A6}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -530,9 +554,10 @@
     <col min="2" max="2" width="19.625" customWidth="1"/>
     <col min="3" max="3" width="20" customWidth="1"/>
     <col min="4" max="4" width="19.75" customWidth="1"/>
+    <col min="5" max="5" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -545,8 +570,11 @@
       <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -559,22 +587,28 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -582,13 +616,16 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -599,33 +636,56 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>8</v>
       </c>
     </row>

--- a/src/test/resources/static/file/sample-fail.xlsx
+++ b/src/test/resources/static/file/sample-fail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Java_WS\GagaMap\backend\src\test\resources\static\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E25843D4-68BF-4D73-AFC4-52081715352D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7932C2E-033B-4DDE-9726-4E7A7A1B63E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10320" yWindow="2025" windowWidth="15990" windowHeight="11385" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{0F3B81DA-CE79-49FC-9A0F-C342C30F01C6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -101,10 +101,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0-111-222</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>잘못된 전화번호 패턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -113,11 +109,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>세부주소가 20자 이상의 데이터 들어옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>필수인 이름이 공백으로 입력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세부주소가 40자 이상의 데이터 들어옴세부주소가 40자 이상의 데이터 들어옴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -521,7 +521,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -565,10 +565,10 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
@@ -582,7 +582,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -599,7 +599,7 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -607,7 +607,7 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
